--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe\Desktop\Buckshot-Ruolette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BE16FE-A5DB-4AA5-8894-8923C176CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF99144-F4E4-4856-8227-881D626F7A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CBC2A017-6F82-4655-8A6A-84493A23D819}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>QUANTITà</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>SG90 servo motore</t>
+  </si>
+  <si>
+    <t>NEMA 17 stepper motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raspberry pi 3 o 4 </t>
+  </si>
+  <si>
+    <t>drv8835 stepper motor driver</t>
+  </si>
+  <si>
+    <t>arduino uno o micro</t>
+  </si>
+  <si>
+    <t>ws2812b neopixel led strip</t>
+  </si>
+  <si>
+    <t>led strip cob 24v bianco freddo</t>
+  </si>
+  <si>
+    <t>D2F-FL microswitch</t>
   </si>
 </sst>
 </file>
@@ -97,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -107,6 +128,7 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -441,13 +463,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="37.36328125" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,6 +499,9 @@
       <c r="A3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -497,35 +522,68 @@
       <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe\Desktop\Buckshot-Ruolette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF99144-F4E4-4856-8227-881D626F7A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496B9C0-F7F2-4BF6-A027-1CA2591B2E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CBC2A017-6F82-4655-8A6A-84493A23D819}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>QUANTITà</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>D2F-FL microswitch</t>
+  </si>
+  <si>
+    <t>slip ring a 6 canali</t>
+  </si>
+  <si>
+    <t>arduino CNC shield</t>
+  </si>
+  <si>
+    <t>speaker</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -128,7 +137,6 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -164,9 +172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -310,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,7 +471,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -582,7 +590,7 @@
       <c r="A11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -590,15 +598,27 @@
       <c r="A12" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
